--- a/Abu Files For Backup/Occupant load.xlsx
+++ b/Abu Files For Backup/Occupant load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIRCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4CF20A-E383-4927-B3A7-B4F9416A425D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA9D10-06C8-470C-A721-1386F7323594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{764E1AF9-111F-4DB9-843F-467CF8A3BC37}"/>
   </bookViews>
@@ -514,12 +514,12 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA12965-922C-40AE-B733-DA6A1051FBFF}">
   <dimension ref="A2:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,17 +848,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -895,8 +895,8 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <f>K5/9.289397333</f>
-        <v>1.7557113142379566</v>
+        <f>K5/4.64469</f>
+        <v>3.5114291804189302</v>
       </c>
       <c r="D5">
         <v>70</v>
@@ -912,11 +912,11 @@
       </c>
       <c r="H5">
         <f>B5*D5*E5*G5</f>
-        <v>67.84068518215463</v>
+        <v>135.68162353138746</v>
       </c>
       <c r="I5">
         <f>D5*F5*B5</f>
-        <v>49.159916798662785</v>
+        <v>98.320017051730048</v>
       </c>
       <c r="K5" s="4">
         <v>16.3095</v>
@@ -927,8 +927,8 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B40" si="0">K6/9.289397333</f>
-        <v>2.5177736683641974</v>
+        <f t="shared" ref="B6:B40" si="0">K6/4.64469</f>
+        <v>5.0355567325268211</v>
       </c>
       <c r="D6">
         <v>150</v>
@@ -944,11 +944,11 @@
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H40" si="1">B6*D6*E6*G6</f>
-        <v>173.72638311712964</v>
+        <v>347.45341454435066</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I40" si="2">D6*F6*B6</f>
-        <v>188.83302512731481</v>
+        <v>377.66675493951158</v>
       </c>
       <c r="K6" s="4">
         <v>23.3886</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>4.5420061697774301</v>
+        <v>9.0840292893605401</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -976,11 +976,11 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>250.71874057171419</v>
+        <v>501.43841677270177</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>181.6802467910972</v>
+        <v>363.36117157442163</v>
       </c>
       <c r="K7" s="4">
         <v>42.192500000000003</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>3.368280942063564</v>
+        <v>6.7365744538386849</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -1008,11 +1008,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>232.41138500238591</v>
+        <v>464.8236373148693</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>252.62107065476729</v>
+        <v>505.24308403790138</v>
       </c>
       <c r="K8" s="4">
         <v>31.289300000000001</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>2.2335894629344302</v>
+        <v>4.4671872611519818</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -1040,11 +1040,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>154.11767294247571</v>
+        <v>308.23592101948674</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>167.51920972008227</v>
+        <v>335.03904458639863</v>
       </c>
       <c r="K9" s="4">
         <v>20.748699999999999</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>1.9324396789692149</v>
+        <v>3.8648865693942978</v>
       </c>
       <c r="D10">
         <v>150</v>
@@ -1072,11 +1072,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>146.67217163376344</v>
+        <v>293.34489061702726</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>130.439678330422</v>
+        <v>260.87984343411512</v>
       </c>
       <c r="K10" s="4">
         <v>17.9512</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>1.8448774861980595</v>
+        <v>3.689761857088417</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -1104,11 +1104,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>140.02620120243273</v>
+        <v>280.05292495301086</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>124.52923031836902</v>
+        <v>249.05892535346814</v>
       </c>
       <c r="K11" s="4">
         <v>17.137799999999999</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>1.2494029035414067</v>
+        <v>2.4988104695900049</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>68.967040275485644</v>
+        <v>137.93433792136827</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>49.97611614165627</v>
+        <v>99.952418783600194</v>
       </c>
       <c r="K12" s="4">
         <v>11.606199999999999</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>14.098675651943932</v>
+        <v>28.197403917161317</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>778.24689598730504</v>
+        <v>1556.4966962273049</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>563.9470260777573</v>
+        <v>1127.8961566864527</v>
       </c>
       <c r="K13" s="4">
         <v>130.9682</v>
@@ -1183,8 +1183,8 @@
         <v>19</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5373661844850703</v>
+        <f>K14/4.64469</f>
+        <v>7.0747455696720341</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -1200,11 +1200,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>244.07826672946987</v>
+        <v>488.15744430737044</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>265.3024638363803</v>
+        <v>530.60591772540261</v>
       </c>
       <c r="K14" s="4">
         <v>32.86</v>
@@ -1215,8 +1215,8 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <f>K15/9.289397333</f>
-        <v>1.5481198063207013</v>
+        <f t="shared" si="0"/>
+        <v>3.0962453898968501</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>106.82026663612839</v>
+        <v>213.64093190288264</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>116.1089854740526</v>
+        <v>232.21840424226374</v>
       </c>
       <c r="K15" s="4">
         <v>14.3811</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>1.5481198063207013</v>
+        <v>3.0962453898968501</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -1264,11 +1264,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>106.82026663612839</v>
+        <v>213.64093190288264</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>116.1089854740526</v>
+        <v>232.21840424226374</v>
       </c>
       <c r="K16" s="4">
         <v>14.3811</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>1.5539867100655109</v>
+        <v>3.1079792192805122</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -1296,11 +1296,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>107.22508299452025</v>
+        <v>214.45056613035536</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>116.54900325491332</v>
+        <v>233.09844144603841</v>
       </c>
       <c r="K17" s="4">
         <v>14.435600000000001</v>
@@ -1311,8 +1311,8 @@
         <v>23</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5539867100655109</v>
+        <f>K18/4.64469</f>
+        <v>3.1079792192805122</v>
       </c>
       <c r="D18">
         <v>150</v>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>107.22508299452025</v>
+        <v>214.45056613035536</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>116.54900325491332</v>
+        <v>233.09844144603841</v>
       </c>
       <c r="K18" s="4">
         <v>14.435600000000001</v>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.59072723485580714</v>
+        <v>1.1814566741806234</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -1360,11 +1360,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>44.836197125555771</v>
+        <v>89.672561570309327</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>39.874088352766982</v>
+        <v>79.748325507192078</v>
       </c>
       <c r="K19" s="4">
         <v>5.4874999999999998</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.59314935108072842</v>
+        <v>1.1863009156692912</v>
       </c>
       <c r="D20">
         <v>150</v>
@@ -1392,11 +1392,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>45.020035747027286</v>
+        <v>90.040239499299204</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>40.037581197949166</v>
+        <v>80.075311807677153</v>
       </c>
       <c r="K20" s="4">
         <v>5.51</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.60674549682328682</v>
+        <v>1.2134932578923461</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -1424,11 +1424,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>46.051983208887471</v>
+        <v>92.104138274029083</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>40.955321035571863</v>
+        <v>81.910794907733361</v>
       </c>
       <c r="K21" s="4">
         <v>5.6363000000000003</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.9849078117800002</v>
+        <v>1.9698192990274919</v>
       </c>
       <c r="D22">
         <v>150</v>
@@ -1456,11 +1456,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>67.958639012820015</v>
+        <v>135.91753163289692</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>73.868085883500015</v>
+        <v>147.73644742706188</v>
       </c>
       <c r="K22" s="4">
         <v>9.1492000000000004</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>0.53310239862467945</v>
+        <v>1.0662067866746761</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>29.427252404082306</v>
+        <v>58.854614624442121</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>21.324095944987178</v>
+        <v>42.64827146698704</v>
       </c>
       <c r="K23" s="4">
         <v>4.9522000000000004</v>
@@ -1503,8 +1503,8 @@
         <v>29</v>
       </c>
       <c r="B24" s="3">
-        <f>K24/9.289397333</f>
-        <v>2.7185617209296735</v>
+        <f t="shared" si="0"/>
+        <v>5.4371335869562873</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>150.064606995318</v>
+        <v>300.12977399998704</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>108.74246883718695</v>
+        <v>217.48534347825148</v>
       </c>
       <c r="K24" s="4">
         <v>25.253799999999998</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>1.5481198063207013</v>
+        <v>3.0962453898968501</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1552,11 +1552,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>85.456213308902733</v>
+        <v>170.91274552230612</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>61.924792252828055</v>
+        <v>123.84981559587401</v>
       </c>
       <c r="K25" s="4">
         <v>14.3811</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>1.5481198063207013</v>
+        <v>3.0962453898968501</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1584,11 +1584,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>85.456213308902733</v>
+        <v>170.91274552230612</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>61.924792252828055</v>
+        <v>123.84981559587401</v>
       </c>
       <c r="K26" s="4">
         <v>14.3811</v>
@@ -1599,8 +1599,8 @@
         <v>32</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0743969325700926</v>
+        <f>K27/4.64469</f>
+        <v>2.1487978745621343</v>
       </c>
       <c r="D27">
         <v>150</v>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>81.546727182070043</v>
+        <v>163.09375867926602</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>72.521792948481249</v>
+        <v>145.04385653294406</v>
       </c>
       <c r="K27" s="4">
         <v>9.9804999999999993</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>1.5539867100655109</v>
+        <v>3.1079792192805122</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1648,11 +1648,11 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>85.780066395616203</v>
+        <v>171.56045290428426</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>62.159468402620433</v>
+        <v>124.31916877122049</v>
       </c>
       <c r="K28" s="4">
         <v>14.435600000000001</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>1.5539867100655109</v>
+        <v>3.1079792192805122</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>85.780066395616203</v>
+        <v>171.56045290428426</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>62.159468402620433</v>
+        <v>124.31916877122049</v>
       </c>
       <c r="K29" s="4">
         <v>14.435600000000001</v>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>1.4647882432224086</v>
+        <v>2.9295819527245093</v>
       </c>
       <c r="D30">
         <v>150</v>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>111.17742766058083</v>
+        <v>222.3552702117903</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>98.873206417512577</v>
+        <v>197.74678180890439</v>
       </c>
       <c r="K30" s="4">
         <v>13.606999999999999</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>3.8019366309734748</v>
+        <v>7.6038874499697515</v>
       </c>
       <c r="D31">
         <v>150</v>
@@ -1744,11 +1744,11 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>288.56699029088679</v>
+        <v>577.13505745270425</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>256.63072259070952</v>
+        <v>513.26240287295821</v>
       </c>
       <c r="K31" s="4">
         <v>35.317700000000002</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>1.4638624565764389</v>
+        <v>2.9277303759777293</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>80.805207603019426</v>
+        <v>161.61071675397065</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>58.554498263057553</v>
+        <v>117.10921503910917</v>
       </c>
       <c r="K32" s="4">
         <v>13.5984</v>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B33:B40" si="3">K33/9.289397333</f>
         <v>1.1240449327004798</v>
       </c>
       <c r="D33">
@@ -1823,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0536208449422775</v>
       </c>
       <c r="D34">
@@ -1855,7 +1855,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.61558352980399955</v>
       </c>
       <c r="D35">
@@ -1887,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99306765221773508</v>
       </c>
       <c r="D36">
@@ -1919,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.0941837921919788</v>
       </c>
       <c r="D37">
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9071423077215468</v>
       </c>
       <c r="D39">
@@ -2015,7 +2015,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19.559848016676497</v>
       </c>
       <c r="D40">
@@ -2045,11 +2045,11 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H42" s="8">
         <f>SUM(H5:H40)</f>
-        <v>6057.9148025124096</v>
+        <v>10030.753396794737</v>
       </c>
       <c r="I42" s="8">
         <f>SUM(I5:I40)</f>
-        <v>5051.663371454154</v>
+        <v>8550.5507725497082</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="9">
-        <f t="shared" ref="B46:B52" si="3">K46/7.431517866</f>
+        <f t="shared" ref="B46:B52" si="4">K46/7.431517866</f>
         <v>4.6123686463596529</v>
       </c>
       <c r="D46">
@@ -2116,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6100945483483544</v>
       </c>
       <c r="D47">
@@ -2132,11 +2132,11 @@
         <v>0.92</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H89" si="4">B47*D47*E47*G47</f>
+        <f t="shared" ref="H47:H89" si="5">B47*D47*E47*G47</f>
         <v>222.66756668522552</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I89" si="5">B47*D47*F47</f>
+        <f t="shared" ref="I47:I89" si="6">B47*D47*F47</f>
         <v>80.676654596096199</v>
       </c>
       <c r="K47">
@@ -2148,7 +2148,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6141314087234404</v>
       </c>
       <c r="D48">
@@ -2164,11 +2164,11 @@
         <v>0.92</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>222.86254704134217</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.747299652660203</v>
       </c>
       <c r="K48">
@@ -2180,7 +2180,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5909194615666955</v>
       </c>
       <c r="D49">
@@ -2196,11 +2196,11 @@
         <v>0.92</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>221.74140999367143</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.341090577417177</v>
       </c>
       <c r="K49">
@@ -2212,7 +2212,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8399740465617551</v>
       </c>
       <c r="D50">
@@ -2228,11 +2228,11 @@
         <v>0.92</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88.870746448932778</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.199545814830714</v>
       </c>
       <c r="K50">
@@ -2244,7 +2244,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8731839512474637</v>
       </c>
       <c r="D51">
@@ -2260,11 +2260,11 @@
         <v>0.92</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.474784845252486</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.780719146830613</v>
       </c>
       <c r="K51">
@@ -2276,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.867101748282334</v>
       </c>
       <c r="D52">
@@ -2292,11 +2292,11 @@
         <v>0.92</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.181014442036727</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.674280594940846</v>
       </c>
       <c r="K52">
@@ -2324,11 +2324,11 @@
         <v>0.92</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>364.997284411561</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>264.49078580547899</v>
       </c>
       <c r="K53">
@@ -2356,11 +2356,11 @@
         <v>0.92</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116.60670210652764</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.248805111060733</v>
       </c>
       <c r="K54">
@@ -2388,11 +2388,11 @@
         <v>0.92</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>271.31163733496766</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>196.60263574997657</v>
       </c>
       <c r="K55">
@@ -2420,11 +2420,11 @@
         <v>0.92</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.112492704386781</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77.296187722159544</v>
       </c>
       <c r="K56">
@@ -2452,11 +2452,11 @@
         <v>0.92</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.516663877802571</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.692025954133229</v>
       </c>
       <c r="K57">
@@ -2484,11 +2484,11 @@
         <v>0.92</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.168665686149353</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.669806408025124</v>
       </c>
       <c r="K58">
@@ -2516,11 +2516,11 @@
         <v>0.92</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.168665686149353</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.669806408025124</v>
       </c>
       <c r="K59">
@@ -2548,11 +2548,11 @@
         <v>0.92</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.168665686149353</v>
       </c>
       <c r="I60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.669806408025124</v>
       </c>
       <c r="K60">
@@ -2580,11 +2580,11 @@
         <v>0.92</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.04990364131353</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.673843218343151</v>
       </c>
       <c r="K61">
@@ -2612,11 +2612,11 @@
         <v>0.92</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.168665686149353</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.669806408025124</v>
       </c>
       <c r="K62">
@@ -2644,11 +2644,11 @@
         <v>0.92</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>164.87984583497629</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.47814915577993</v>
       </c>
       <c r="K63">
@@ -2676,11 +2676,11 @@
         <v>0.92</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.168665686149353</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.669806408025124</v>
       </c>
       <c r="K64">
@@ -2708,11 +2708,11 @@
         <v>0.92</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.60331579508309</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.001201375030107</v>
       </c>
       <c r="K65">
@@ -2740,11 +2740,11 @@
         <v>0.92</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.373795767713773</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.381810060765858</v>
       </c>
       <c r="K66">
@@ -2772,11 +2772,11 @@
         <v>0.92</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>666.46365514726801</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>724.41701646442175</v>
       </c>
       <c r="K67">
@@ -2804,11 +2804,11 @@
         <v>0.92</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>164.9013865130631</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.746879171399677</v>
       </c>
       <c r="K68">
@@ -2836,11 +2836,11 @@
         <v>0.92</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.60331579508309</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.001201375030107</v>
       </c>
       <c r="K69">
@@ -2868,11 +2868,11 @@
         <v>0.92</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.373795767713773</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.381810060765858</v>
       </c>
       <c r="K70">
@@ -2900,11 +2900,11 @@
         <v>0.92</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.373795767713773</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.381810060765858</v>
       </c>
       <c r="K71">
@@ -2916,7 +2916,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="9">
-        <f t="shared" ref="B72:B87" si="6">K72/4.644698666</f>
+        <f t="shared" ref="B72:B87" si="7">K72/4.644698666</f>
         <v>4.5991358182976683</v>
       </c>
       <c r="D72">
@@ -2932,11 +2932,11 @@
         <v>0.92</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349.07440860879308</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>310.44166773509261</v>
       </c>
       <c r="K72">
@@ -2948,7 +2948,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5325015713301378</v>
       </c>
       <c r="D73">
@@ -2964,11 +2964,11 @@
         <v>0.92</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>519.74260842177955</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>564.93761784976039</v>
       </c>
       <c r="K73">
@@ -2980,7 +2980,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1650056094295613</v>
       </c>
       <c r="D74">
@@ -2996,11 +2996,11 @@
         <v>0.92</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.385387050639736</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87.375420707217103</v>
       </c>
       <c r="K74">
@@ -3012,7 +3012,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5436534965086581</v>
       </c>
       <c r="D75">
@@ -3028,11 +3028,11 @@
         <v>0.92</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>382.51209125909742</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>415.77401223814934</v>
       </c>
       <c r="K75">
@@ -3044,7 +3044,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6168977167398437</v>
       </c>
       <c r="D76">
@@ -3060,11 +3060,11 @@
         <v>0.92</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174.69615971853446</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.295710042947263</v>
       </c>
       <c r="K76">
@@ -3076,7 +3076,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6170053663498525</v>
       </c>
       <c r="D77">
@@ -3092,11 +3092,11 @@
         <v>0.92</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174.70135919469789</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.297593911122419</v>
       </c>
       <c r="K77">
@@ -3108,7 +3108,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2016067640414714</v>
       </c>
       <c r="D78">
@@ -3124,11 +3124,11 @@
         <v>0.92</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.52869337508922</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88.064270561658859</v>
       </c>
       <c r="K78">
@@ -3140,7 +3140,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0908358897614647</v>
       </c>
       <c r="D79">
@@ -3156,11 +3156,11 @@
         <v>0.92</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>282.26767639354108</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>306.81269173210984</v>
       </c>
       <c r="K79">
@@ -3172,7 +3172,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2267970599925246</v>
       </c>
       <c r="D80">
@@ -3188,11 +3188,11 @@
         <v>0.92</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178.11919771158736</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129.071882399701</v>
       </c>
       <c r="K80">
@@ -3204,7 +3204,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6505923318815361</v>
       </c>
       <c r="D81">
@@ -3220,11 +3220,11 @@
         <v>0.92</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256.71269671986079</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>186.02369327526145</v>
       </c>
       <c r="K81">
@@ -3236,7 +3236,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5446229174170494</v>
       </c>
       <c r="D82">
@@ -3252,11 +3252,11 @@
         <v>0.92</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>520.57898130177637</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>565.84671880627866</v>
       </c>
       <c r="K82">
@@ -3268,7 +3268,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2253109209560937</v>
       </c>
       <c r="D83">
@@ -3284,11 +3284,11 @@
         <v>0.92</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84.546453545970479</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91.898319071707036</v>
       </c>
       <c r="K83">
@@ -3300,7 +3300,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89000391570289217</v>
       </c>
       <c r="D84">
@@ -3316,11 +3316,11 @@
         <v>0.92</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.410270183499563</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.750293677716911</v>
       </c>
       <c r="K84">
@@ -3332,7 +3332,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7795129304089068</v>
       </c>
       <c r="D85">
@@ -3348,11 +3348,11 @@
         <v>0.92</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191.7863921982146</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>208.46346978066802</v>
       </c>
       <c r="K85">
@@ -3364,7 +3364,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6100936869690137</v>
       </c>
       <c r="D86">
@@ -3380,11 +3380,11 @@
         <v>0.92</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88.877171520689544</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.40374747876055</v>
       </c>
       <c r="K86">
@@ -3396,7 +3396,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7721930441375164</v>
       </c>
       <c r="D87">
@@ -3412,11 +3412,11 @@
         <v>0.92</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286.30945205003752</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>254.62303047928233</v>
       </c>
       <c r="K87">
@@ -3424,32 +3424,32 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <f>K88/7.431517866</f>
         <v>5.5576936965948223</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17">
         <v>150</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>0.5</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="17">
         <v>0.5</v>
       </c>
-      <c r="G88" s="18">
-        <v>0.92</v>
-      </c>
-      <c r="H88" s="18">
-        <f t="shared" si="4"/>
+      <c r="G88" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="H88" s="17">
+        <f t="shared" si="5"/>
         <v>383.48086506504274</v>
       </c>
-      <c r="I88" s="18">
-        <f t="shared" si="5"/>
+      <c r="I88" s="17">
+        <f t="shared" si="6"/>
         <v>416.82702724461166</v>
       </c>
       <c r="K88">
@@ -3477,11 +3477,11 @@
         <v>0.92</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305.30227544910184</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110.61676646706587</v>
       </c>
       <c r="K89">
@@ -3530,7 +3530,7 @@
         <v>49</v>
       </c>
       <c r="B95" s="12">
-        <f t="shared" ref="B95:B101" si="7">K95/7.4315</f>
+        <f t="shared" ref="B95:B101" si="8">K95/7.4315</f>
         <v>4.6123797349121975</v>
       </c>
       <c r="D95">
@@ -3562,7 +3562,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6101056314337612</v>
       </c>
       <c r="D96">
@@ -3578,11 +3578,11 @@
         <v>0.92</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H124" si="8">B96*D96*E96*G96</f>
+        <f t="shared" ref="H96:H124" si="9">B96*D96*E96*G96</f>
         <v>222.66810199825068</v>
       </c>
       <c r="I96">
-        <f t="shared" ref="I96:I124" si="9">B96*D96*F96</f>
+        <f t="shared" ref="I96:I124" si="10">B96*D96*F96</f>
         <v>80.676848550090824</v>
       </c>
       <c r="K96" s="13">
@@ -3594,7 +3594,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6101056314337612</v>
       </c>
       <c r="D97">
@@ -3610,11 +3610,11 @@
         <v>0.92</v>
       </c>
       <c r="H97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>222.66810199825068</v>
       </c>
       <c r="I97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80.676848550090824</v>
       </c>
       <c r="K97" s="13">
@@ -3626,7 +3626,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6101056314337612</v>
       </c>
       <c r="D98">
@@ -3642,11 +3642,11 @@
         <v>0.92</v>
       </c>
       <c r="H98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>222.66810199825068</v>
       </c>
       <c r="I98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80.676848550090824</v>
       </c>
       <c r="K98" s="13">
@@ -3658,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="B99" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3643678934266299</v>
       </c>
       <c r="D99">
@@ -3674,11 +3674,11 @@
         <v>0.92</v>
       </c>
       <c r="H99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.89896925250622</v>
       </c>
       <c r="I99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.876438134966023</v>
       </c>
       <c r="K99" s="13">
@@ -3690,7 +3690,7 @@
         <v>54</v>
       </c>
       <c r="B100" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8734037542891746</v>
       </c>
       <c r="D100">
@@ -3706,11 +3706,11 @@
         <v>0.92</v>
       </c>
       <c r="H100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.485401332167129</v>
       </c>
       <c r="I100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.784565700060554</v>
       </c>
       <c r="K100" s="13">
@@ -3722,7 +3722,7 @@
         <v>55</v>
       </c>
       <c r="B101" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8668909372266702</v>
       </c>
       <c r="D101">
@@ -3738,11 +3738,11 @@
         <v>0.92</v>
       </c>
       <c r="H101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.170832268048173</v>
       </c>
       <c r="I101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.67059140146673</v>
       </c>
       <c r="K101" s="13">
@@ -3770,11 +3770,11 @@
         <v>0.92</v>
       </c>
       <c r="H102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>501.88192739956088</v>
       </c>
       <c r="I102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>446.33768246996516</v>
       </c>
       <c r="K102" s="13">
@@ -3786,7 +3786,7 @@
         <v>57</v>
       </c>
       <c r="B103" s="12">
-        <f t="shared" ref="B103:B120" si="10">K103/7.4315</f>
+        <f t="shared" ref="B103:B120" si="11">K103/7.4315</f>
         <v>2.4142232389154272</v>
       </c>
       <c r="D103">
@@ -3802,11 +3802,11 @@
         <v>0.92</v>
       </c>
       <c r="H103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133.26512278813161</v>
       </c>
       <c r="I103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>96.568929556617093</v>
       </c>
       <c r="K103" s="13">
@@ -3818,7 +3818,7 @@
         <v>61</v>
       </c>
       <c r="B104" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8668505685258696</v>
       </c>
       <c r="D104">
@@ -3834,11 +3834,11 @@
         <v>0.92</v>
       </c>
       <c r="H104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.168882459799505</v>
       </c>
       <c r="I104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.669884949202718</v>
       </c>
       <c r="K104" s="13">
@@ -3850,7 +3850,7 @@
         <v>62</v>
       </c>
       <c r="B105" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8694476216107112</v>
       </c>
       <c r="D105">
@@ -3866,11 +3866,11 @@
         <v>0.92</v>
       </c>
       <c r="H105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.294320123797362</v>
       </c>
       <c r="I105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.715333378187445</v>
       </c>
       <c r="K105" s="13">
@@ -3882,7 +3882,7 @@
         <v>63</v>
       </c>
       <c r="B106" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3687142568794994</v>
       </c>
       <c r="D106">
@@ -3898,11 +3898,11 @@
         <v>0.92</v>
       </c>
       <c r="H106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.108898607279826</v>
       </c>
       <c r="I106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.95249949539124</v>
       </c>
       <c r="K106" s="13">
@@ -3914,7 +3914,7 @@
         <v>65</v>
       </c>
       <c r="B107" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1344143174325509</v>
       </c>
       <c r="D107">
@@ -3930,11 +3930,11 @@
         <v>0.92</v>
       </c>
       <c r="H107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103.09221153199222</v>
       </c>
       <c r="I107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.352250555069645</v>
       </c>
       <c r="K107" s="13">
@@ -3946,7 +3946,7 @@
         <v>69</v>
       </c>
       <c r="B108" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1344143174325509</v>
       </c>
       <c r="D108">
@@ -3962,11 +3962,11 @@
         <v>0.92</v>
       </c>
       <c r="H108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103.09221153199222</v>
       </c>
       <c r="I108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.352250555069645</v>
       </c>
       <c r="K108" s="13">
@@ -3978,7 +3978,7 @@
         <v>67</v>
       </c>
       <c r="B109" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3348583731413579</v>
       </c>
       <c r="D109">
@@ -3994,11 +3994,11 @@
         <v>0.92</v>
       </c>
       <c r="H109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>161.07365942272759</v>
       </c>
       <c r="I109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58.360021529973764</v>
       </c>
       <c r="K109" s="13">
@@ -4010,7 +4010,7 @@
         <v>68</v>
       </c>
       <c r="B110" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3493776491959899</v>
       </c>
       <c r="D110">
@@ -4026,11 +4026,11 @@
         <v>0.92</v>
       </c>
       <c r="H110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>161.77494045616632</v>
       </c>
       <c r="I110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58.614108860929825</v>
       </c>
       <c r="K110" s="13">
@@ -4042,7 +4042,7 @@
         <v>73</v>
       </c>
       <c r="B111" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8409876875462559</v>
       </c>
       <c r="D111">
@@ -4058,11 +4058,11 @@
         <v>0.92</v>
       </c>
       <c r="H111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88.919705308484168</v>
       </c>
       <c r="I111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.21728453205948</v>
       </c>
       <c r="K111" s="13">
@@ -4074,7 +4074,7 @@
         <v>74</v>
       </c>
       <c r="B112" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8503935948328065</v>
       </c>
       <c r="D112">
@@ -4090,11 +4090,11 @@
         <v>0.92</v>
       </c>
       <c r="H112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.37401063042455</v>
       </c>
       <c r="I112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.381887909574111</v>
       </c>
       <c r="K112" s="13">
@@ -4106,7 +4106,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.154504474197672</v>
       </c>
       <c r="D113">
@@ -4122,11 +4122,11 @@
         <v>0.92</v>
       </c>
       <c r="H113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104.06256610374756</v>
       </c>
       <c r="I113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.703828298459257</v>
       </c>
       <c r="K113" s="13">
@@ -4138,7 +4138,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.154504474197672</v>
       </c>
       <c r="D114">
@@ -4154,11 +4154,11 @@
         <v>0.92</v>
       </c>
       <c r="H114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104.06256610374756</v>
       </c>
       <c r="I114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.703828298459257</v>
       </c>
       <c r="K114" s="13">
@@ -4170,7 +4170,7 @@
         <v>97</v>
       </c>
       <c r="B115" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8503935948328065</v>
       </c>
       <c r="D115">
@@ -4186,11 +4186,11 @@
         <v>0.92</v>
       </c>
       <c r="H115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.37401063042455</v>
       </c>
       <c r="I115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.381887909574111</v>
       </c>
       <c r="K115" s="13">
@@ -4202,7 +4202,7 @@
         <v>98</v>
       </c>
       <c r="B116" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8503935948328065</v>
       </c>
       <c r="D116">
@@ -4218,11 +4218,11 @@
         <v>0.92</v>
       </c>
       <c r="H116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.37401063042455</v>
       </c>
       <c r="I116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.381887909574111</v>
       </c>
       <c r="K116" s="13">
@@ -4234,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4475139608423602</v>
       </c>
       <c r="D117">
@@ -4250,11 +4250,11 @@
         <v>0.92</v>
       </c>
       <c r="H117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.914924308685997</v>
       </c>
       <c r="I117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.331494314741303</v>
       </c>
       <c r="K117" s="13">
@@ -4266,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="B118" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5225728318643612</v>
       </c>
       <c r="D118">
@@ -4282,11 +4282,11 @@
         <v>0.92</v>
       </c>
       <c r="H118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.540267779048648</v>
       </c>
       <c r="I118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.645024557626321</v>
       </c>
       <c r="K118" s="13">
@@ -4298,7 +4298,7 @@
         <v>101</v>
       </c>
       <c r="B119" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7907959362174526</v>
       </c>
       <c r="D119">
@@ -4314,11 +4314,11 @@
         <v>0.92</v>
       </c>
       <c r="H119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>86.495443719302955</v>
       </c>
       <c r="I119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.338928883805419</v>
       </c>
       <c r="K119" s="13">
@@ -4330,7 +4330,7 @@
         <v>102</v>
       </c>
       <c r="B120" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8122182601089956</v>
       </c>
       <c r="D120">
@@ -4346,11 +4346,11 @@
         <v>0.92</v>
       </c>
       <c r="H120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87.530141963264498</v>
       </c>
       <c r="I120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.713819551907424</v>
       </c>
       <c r="K120" s="13">
@@ -4378,11 +4378,11 @@
         <v>0.92</v>
       </c>
       <c r="H121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>178.13278646169752</v>
       </c>
       <c r="I121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158.41848598372306</v>
       </c>
       <c r="K121" s="13">
@@ -4410,11 +4410,11 @@
         <v>0.92</v>
       </c>
       <c r="H122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.21265340395303</v>
       </c>
       <c r="I122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>156.71085777031394</v>
       </c>
       <c r="K122" s="13">
@@ -4442,11 +4442,11 @@
         <v>0.92</v>
       </c>
       <c r="H123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>153.87701201395168</v>
       </c>
       <c r="I123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>136.84714507169616</v>
       </c>
       <c r="K123" s="13">
@@ -4474,11 +4474,11 @@
         <v>0.92</v>
       </c>
       <c r="H124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>320.83885802867849</v>
       </c>
       <c r="I124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>232.49192610773804</v>
       </c>
       <c r="K124" s="14">
